--- a/data/trdplan_auto/trdplan_mxz-20200814.xlsx
+++ b/data/trdplan_auto/trdplan_mxz-20200814.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\data\trdplan_auto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E471530-D23B-44D2-B57E-8AEF160E0F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="交易计划" sheetId="1" r:id="rId1"/>
@@ -19,22 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">交易计划!$A$1:$R$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="360">
   <si>
     <t>产品代码</t>
   </si>
@@ -1063,6 +1047,9 @@
     <t>91802</t>
   </si>
   <si>
+    <t>91803</t>
+  </si>
+  <si>
     <t>92101</t>
   </si>
   <si>
@@ -1151,6 +1138,9 @@
   </si>
   <si>
     <t>mslh18hait6618</t>
+  </si>
+  <si>
+    <t>mslh18sw3489</t>
   </si>
   <si>
     <t>mslh18ht0666i</t>
@@ -1186,15 +1176,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1203,7 +1190,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1212,20 +1206,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1275,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1289,26 +1269,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1350,7 +1321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1382,27 +1353,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1434,24 +1387,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1627,30 +1562,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="L16" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:M25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="7.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
     <col min="8" max="10" width="29" style="3" customWidth="1"/>
-    <col min="11" max="13" width="47.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="5.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="36.625" style="3" customWidth="1"/>
+    <col min="11" max="13" width="47.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="36.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1639,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="80" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1741,7 +1674,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="80" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1776,7 +1709,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="80" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1811,7 +1744,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="80" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1846,7 +1779,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="80" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1881,7 +1814,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="80" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1910,7 +1843,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="80" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1945,7 +1878,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="80" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1980,7 +1913,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="80" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2015,7 +1948,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="80" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2050,7 +1983,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="80" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2085,7 +2018,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="80" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2120,7 +2053,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="80" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2155,7 +2088,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="80" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2190,7 +2123,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="80" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2222,7 +2155,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="80" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2257,7 +2190,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" ht="80" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2298,7 +2231,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" ht="80" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2336,7 +2269,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" ht="80" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2371,7 +2304,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" ht="80" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2406,7 +2339,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" ht="80" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2441,7 +2374,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" ht="80" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2476,7 +2409,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" ht="80" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2511,7 +2444,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" ht="80" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2549,7 +2482,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" ht="80" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2584,7 +2517,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" ht="80" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2619,7 +2552,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" ht="80" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2645,7 +2578,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" ht="80" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2680,7 +2613,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" ht="80" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2715,7 +2648,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" ht="80" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2750,7 +2683,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" ht="80" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2785,42 +2718,38 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="80" customHeight="1"/>
+    <row r="34" ht="80" customHeight="1"/>
+    <row r="35" ht="80" customHeight="1"/>
+    <row r="36" ht="80" customHeight="1"/>
+    <row r="37" ht="80" customHeight="1"/>
+    <row r="38" ht="80" customHeight="1"/>
+    <row r="39" ht="80" customHeight="1"/>
+    <row r="40" ht="80" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <autoFilter ref="A1:R1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>262</v>
       </c>
@@ -2834,16 +2763,16 @@
         <v>306</v>
       </c>
       <c r="E1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -2857,20 +2786,16 @@
         <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F2">
         <v>106335339.176626</v>
       </c>
       <c r="G2">
-        <v>107543532.40000001</v>
-      </c>
-      <c r="H2" s="5">
-        <f>G2-F2</f>
-        <v>1208193.2233740091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>107543532.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>263</v>
       </c>
@@ -2884,20 +2809,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F3">
-        <v>78697894.282700002</v>
+        <v>78697894.2827</v>
       </c>
       <c r="G3">
         <v>81240459.25</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H41" si="0">G3-F3</f>
-        <v>2542564.9672999978</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -2911,7 +2832,7 @@
         <v>308</v>
       </c>
       <c r="E4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2919,12 +2840,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -2938,20 +2855,16 @@
         <v>309</v>
       </c>
       <c r="E5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F5">
-        <v>23974398.679000001</v>
+        <v>23974398.679</v>
       </c>
       <c r="G5">
-        <v>24264386.280000001</v>
-      </c>
-      <c r="H5" s="5">
-        <f t="shared" si="0"/>
-        <v>289987.60099999979</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>24264386.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>263</v>
       </c>
@@ -2965,7 +2878,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2973,12 +2886,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>263</v>
       </c>
@@ -2992,7 +2901,7 @@
         <v>310</v>
       </c>
       <c r="E7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F7">
         <v>16406333.3511</v>
@@ -3000,12 +2909,8 @@
       <c r="G7">
         <v>16333433</v>
       </c>
-      <c r="H7" s="5">
-        <f t="shared" si="0"/>
-        <v>-72900.351099999622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>263</v>
       </c>
@@ -3019,7 +2924,7 @@
         <v>311</v>
       </c>
       <c r="E8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F8">
         <v>8.91</v>
@@ -3027,12 +2932,8 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="5">
-        <f t="shared" si="0"/>
-        <v>-8.91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>263</v>
       </c>
@@ -3046,20 +2947,16 @@
         <v>312</v>
       </c>
       <c r="E9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F9">
-        <v>37654030.149181597</v>
+        <v>37654030.1491816</v>
       </c>
       <c r="G9">
-        <v>37341702.799999997</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="0"/>
-        <v>-312327.34918159992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>37341702.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>263</v>
       </c>
@@ -3073,20 +2970,16 @@
         <v>313</v>
       </c>
       <c r="E10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F10">
-        <v>41058261.092336804</v>
+        <v>41058261.0923368</v>
       </c>
       <c r="G10">
-        <v>60322656.489999987</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="0"/>
-        <v>19264395.397663184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>60322656.48999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>263</v>
       </c>
@@ -3100,20 +2993,16 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F11">
-        <v>30305813.205987699</v>
+        <v>30305813.2059877</v>
       </c>
       <c r="G11">
         <v>15673338.73</v>
       </c>
-      <c r="H11" s="5">
-        <f t="shared" si="0"/>
-        <v>-14632474.475987699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>263</v>
       </c>
@@ -3127,20 +3016,16 @@
         <v>314</v>
       </c>
       <c r="E12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F12">
-        <v>29744311.078261301</v>
+        <v>29744311.0782613</v>
       </c>
       <c r="G12">
-        <v>29087412.379999999</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="0"/>
-        <v>-656898.69826130196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>29087412.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>263</v>
       </c>
@@ -3154,7 +3039,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F13">
         <v>19863261.103</v>
@@ -3162,12 +3047,8 @@
       <c r="G13">
         <v>19949814.98</v>
       </c>
-      <c r="H13" s="5">
-        <f t="shared" si="0"/>
-        <v>86553.877000000328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -3181,20 +3062,16 @@
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F14">
         <v>27749349.544</v>
       </c>
       <c r="G14">
-        <v>28300164.210000001</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="0"/>
-        <v>550814.66600000113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>28300164.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>263</v>
       </c>
@@ -3208,20 +3085,16 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F15">
-        <v>40822603.884999998</v>
+        <v>40822603.885</v>
       </c>
       <c r="G15">
-        <v>41619928.690000013</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="0"/>
-        <v>797324.8050000146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>41619928.69000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>263</v>
       </c>
@@ -3235,20 +3108,16 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F16">
-        <v>82244120.371672854</v>
+        <v>82244120.37167285</v>
       </c>
       <c r="G16">
-        <v>84506792.919999987</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="0"/>
-        <v>2262672.5483271331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84506792.91999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>263</v>
       </c>
@@ -3262,20 +3131,16 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F17">
-        <v>29185154.886999998</v>
+        <v>29185154.887</v>
       </c>
       <c r="G17">
         <v>29986411.25</v>
       </c>
-      <c r="H17" s="5">
-        <f t="shared" si="0"/>
-        <v>801256.36300000176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -3289,7 +3154,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F18">
         <v>18349714.0994922</v>
@@ -3297,12 +3162,8 @@
       <c r="G18">
         <v>18705762.5</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" si="0"/>
-        <v>356048.40050780028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>263</v>
       </c>
@@ -3316,20 +3177,16 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F19">
-        <v>39285618.932340004</v>
+        <v>39285618.93234</v>
       </c>
       <c r="G19">
-        <v>41448692.950000003</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="0"/>
-        <v>2163074.0176599994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>41448692.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>263</v>
       </c>
@@ -3343,7 +3200,7 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F20">
         <v>117083827.743177</v>
@@ -3351,12 +3208,8 @@
       <c r="G20">
         <v>119465393.12</v>
       </c>
-      <c r="H20" s="5">
-        <f t="shared" si="0"/>
-        <v>2381565.3768230081</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>263</v>
       </c>
@@ -3370,20 +3223,16 @@
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F21">
-        <v>196060040.76482999</v>
+        <v>196060040.76483</v>
       </c>
       <c r="G21">
-        <v>194378079.65000001</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="0"/>
-        <v>-1681961.1148299873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>194378079.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>263</v>
       </c>
@@ -3397,20 +3246,16 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F22">
-        <v>19347700.810899999</v>
+        <v>19347700.8109</v>
       </c>
       <c r="G22">
-        <v>19054798.309999999</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="0"/>
-        <v>-292902.50090000033</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>19054798.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>263</v>
       </c>
@@ -3426,12 +3271,8 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>263</v>
       </c>
@@ -3445,20 +3286,16 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F24">
         <v>38216164.9947</v>
       </c>
       <c r="G24">
-        <v>38118852.420000002</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="0"/>
-        <v>-97312.574699997902</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>38118852.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>263</v>
       </c>
@@ -3472,20 +3309,16 @@
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F25">
-        <v>20470696.677200001</v>
+        <v>20470696.6772</v>
       </c>
       <c r="G25">
         <v>20815519.84</v>
       </c>
-      <c r="H25" s="5">
-        <f t="shared" si="0"/>
-        <v>344823.16279999912</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>263</v>
       </c>
@@ -3499,20 +3332,16 @@
         <v>315</v>
       </c>
       <c r="E26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F26">
-        <v>539146262.55610371</v>
+        <v>539146262.5561037</v>
       </c>
       <c r="G26">
-        <v>521955495.17000008</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="0"/>
-        <v>-17190767.38610363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>521955495.1700001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>263</v>
       </c>
@@ -3526,7 +3355,7 @@
         <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F27">
         <v>21126075.1622166</v>
@@ -3534,12 +3363,8 @@
       <c r="G27">
         <v>20923391</v>
       </c>
-      <c r="H27" s="5">
-        <f t="shared" si="0"/>
-        <v>-202684.16221660003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>263</v>
       </c>
@@ -3555,12 +3380,8 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>263</v>
       </c>
@@ -3574,20 +3395,16 @@
         <v>316</v>
       </c>
       <c r="E29" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F29">
         <v>62435368.9706605</v>
       </c>
       <c r="G29">
-        <v>52610606.900000013</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" si="0"/>
-        <v>-9824762.0706604868</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>52610606.90000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>263</v>
       </c>
@@ -3601,20 +3418,16 @@
         <v>317</v>
       </c>
       <c r="E30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F30">
-        <v>247853939.50266531</v>
+        <v>247853939.5026653</v>
       </c>
       <c r="G30">
-        <v>248683051.24000001</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="0"/>
-        <v>829111.73733469844</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+        <v>248683051.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>263</v>
       </c>
@@ -3630,12 +3443,8 @@
       <c r="G31">
         <v>16868.39</v>
       </c>
-      <c r="H31" s="5">
-        <f t="shared" si="0"/>
-        <v>16868.39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>263</v>
       </c>
@@ -3645,18 +3454,20 @@
       <c r="C32" t="s">
         <v>25</v>
       </c>
+      <c r="D32" t="s">
+        <v>318</v>
+      </c>
+      <c r="E32" t="s">
+        <v>349</v>
+      </c>
       <c r="F32">
-        <v>64079818.905574307</v>
+        <v>64079818.90557431</v>
       </c>
       <c r="G32">
-        <v>65063740.590000011</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="0"/>
-        <v>983921.68442570418</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+        <v>65063740.59000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>263</v>
       </c>
@@ -3670,20 +3481,16 @@
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F33">
-        <v>35006246.494707353</v>
+        <v>35006246.49470735</v>
       </c>
       <c r="G33">
-        <v>35007583.729999997</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="0"/>
-        <v>1337.2352926433086</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+        <v>35007583.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>263</v>
       </c>
@@ -3699,12 +3506,8 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>263</v>
       </c>
@@ -3718,20 +3521,16 @@
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F35">
-        <v>186406649.59671199</v>
+        <v>186406649.596712</v>
       </c>
       <c r="G35">
-        <v>191362535.34999999</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" si="0"/>
-        <v>4955885.7532880008</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+        <v>191362535.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>263</v>
       </c>
@@ -3745,20 +3544,16 @@
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F36">
-        <v>21786.256799999999</v>
+        <v>21786.2568</v>
       </c>
       <c r="G36">
         <v>25620</v>
       </c>
-      <c r="H36" s="5">
-        <f t="shared" si="0"/>
-        <v>3833.7432000000008</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>263</v>
       </c>
@@ -3769,23 +3564,19 @@
         <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E37" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F37">
-        <v>15886498.625203401</v>
+        <v>15886498.6252034</v>
       </c>
       <c r="G37">
-        <v>16030432.279999999</v>
-      </c>
-      <c r="H37" s="5">
-        <f t="shared" si="0"/>
-        <v>143933.65479659848</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+        <v>16030432.28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>263</v>
       </c>
@@ -3796,23 +3587,19 @@
         <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E38" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F38">
-        <v>39960307.316537023</v>
+        <v>39960307.31653702</v>
       </c>
       <c r="G38">
-        <v>40324500.100000001</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="0"/>
-        <v>364192.7834629789</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+        <v>40324500.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>263</v>
       </c>
@@ -3826,20 +3613,16 @@
         <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F39">
-        <v>40104423.832605481</v>
+        <v>40104423.83260548</v>
       </c>
       <c r="G39">
-        <v>42440126.649999999</v>
-      </c>
-      <c r="H39" s="5">
-        <f t="shared" si="0"/>
-        <v>2335702.8173945174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+        <v>42440126.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>263</v>
       </c>
@@ -3853,20 +3636,16 @@
         <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F40">
-        <v>83889028.463596269</v>
+        <v>83889028.46359627</v>
       </c>
       <c r="G40">
-        <v>84213655.560000002</v>
-      </c>
-      <c r="H40" s="5">
-        <f t="shared" si="0"/>
-        <v>324627.0964037329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+        <v>84213655.56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>263</v>
       </c>
@@ -3880,22 +3659,16 @@
         <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F41">
         <v>92978258.80355005</v>
       </c>
       <c r="G41">
-        <v>93597178.519999981</v>
-      </c>
-      <c r="H41" s="5">
-        <f t="shared" si="0"/>
-        <v>618919.71644993126</v>
+        <v>93597178.51999998</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>